--- a/Plasma_Gen_Issue Note.xlsx
+++ b/Plasma_Gen_Issue Note.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pipette" sheetId="1" r:id="rId1"/>
@@ -12,22 +12,18 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -62,12 +58,68 @@
   </si>
   <si>
     <t>Transformer Load가 short 발생시 Main PCB가 dead.
- - 원인 파악 필요
- - Timer path가 죽는 경우 Series Resistor 추가 필요</t>
+ - LM3671MF-3.3 Dead
+ - LM3671MF-3.3 VIN(Pin-1)이 GND(Pin-2)와 short</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer에서 Timer path로 Over voltage이 또는 Over Current 발생할 수 있음 - Protection circuit 추가 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Over voltage protection 필요
+Zener diode 추가 - 5V 
+ - BZT52C5V1S or CZRQR52C5V1-HF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timer path에 Series Resistor 추가 필요
+Zener diode 추가 - 5V 
+ - BZT52C5V1S or CZRQR52C5V1-HF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oxford Pipette style 적용시 Plasma On key를 Transformer PCB에 구현 검토</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Issue and Review Item list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proto type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>V1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer Issue and Review Item list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0 -A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -365,8 +417,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -377,6 +444,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -425,7 +495,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,7 +530,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -669,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G32"/>
+  <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -681,14 +751,20 @@
     <col min="2" max="2" width="9" style="8"/>
     <col min="3" max="3" width="11.125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14" style="8" customWidth="1"/>
-    <col min="6" max="6" width="58" style="8" customWidth="1"/>
-    <col min="7" max="7" width="50.375" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="8"/>
+    <col min="5" max="5" width="11.125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="14" style="8" customWidth="1"/>
+    <col min="7" max="7" width="71.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.375" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
@@ -696,19 +772,22 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -716,285 +795,339 @@
         <v>43153</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="14">
+        <v>43154</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="14">
+        <v>43154</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="24"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="24"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="24"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="24"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E12" s="24"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E13" s="24"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E14" s="24"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E15" s="24"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E16" s="24"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E17" s="24"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>14</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E18" s="24"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>15</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E19" s="24"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>16</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E20" s="24"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>17</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="24"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>18</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E22" s="24"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>19</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="24"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>20</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E24" s="24"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <v>21</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E25" s="24"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>22</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E26" s="24"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>23</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E27" s="24"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>24</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E28" s="24"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="4">
         <v>25</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E29" s="24"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
         <v>26</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E30" s="24"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <v>27</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16"/>
-    </row>
-    <row r="32" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="24"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="6">
         <v>28</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1005,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G32"/>
+  <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1016,15 +1149,21 @@
     <col min="1" max="1" width="4.375" style="8" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="8" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="47.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="8"/>
+    <col min="4" max="4" width="12.625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="47.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
@@ -1032,307 +1171,340 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="11">
         <v>43153</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="5"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="5"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F8" s="5"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F9" s="5"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F10" s="5"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F11" s="5"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="5"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F13" s="5"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="14"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F14" s="5"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="14"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F15" s="5"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="14"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F16" s="5"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="14"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F17" s="5"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>14</v>
       </c>
       <c r="C18" s="14"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F18" s="5"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>15</v>
       </c>
       <c r="C19" s="14"/>
-      <c r="D19" s="5"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F19" s="5"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>16</v>
       </c>
       <c r="C20" s="14"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F20" s="5"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>17</v>
       </c>
       <c r="C21" s="14"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F21" s="5"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>18</v>
       </c>
       <c r="C22" s="14"/>
-      <c r="D22" s="5"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F22" s="5"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>19</v>
       </c>
       <c r="C23" s="14"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F23" s="5"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>20</v>
       </c>
       <c r="C24" s="14"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F24" s="5"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <v>21</v>
       </c>
       <c r="C25" s="14"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F25" s="5"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>22</v>
       </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F26" s="5"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>23</v>
       </c>
       <c r="C27" s="14"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F27" s="5"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>24</v>
       </c>
       <c r="C28" s="14"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F28" s="5"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="4">
         <v>25</v>
       </c>
       <c r="C29" s="14"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F29" s="5"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
         <v>26</v>
       </c>
       <c r="C30" s="14"/>
-      <c r="D30" s="5"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F30" s="5"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <v>27</v>
       </c>
       <c r="C31" s="14"/>
-      <c r="D31" s="5"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16"/>
-    </row>
-    <row r="32" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F31" s="5"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="6">
         <v>28</v>
       </c>
       <c r="C32" s="17"/>
-      <c r="D32" s="7"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Plasma_Gen_Issue Note.xlsx
+++ b/Plasma_Gen_Issue Note.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211" calcMode="manual"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
@@ -358,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -434,6 +434,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H32"/>
+  <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -759,104 +762,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
+    <row r="2" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>43153</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="5" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11">
-        <v>43153</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14">
+        <v>43154</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="14">
         <v>43154</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>13</v>
-      </c>
+      <c r="G6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="14">
-        <v>43154</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>17</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="16"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="5"/>
@@ -867,7 +881,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="5"/>
@@ -878,7 +892,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="5"/>
@@ -889,7 +903,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="5"/>
@@ -900,7 +914,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="5"/>
@@ -911,7 +925,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="5"/>
@@ -922,7 +936,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="5"/>
@@ -933,7 +947,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="5"/>
@@ -944,7 +958,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="5"/>
@@ -955,7 +969,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="5"/>
@@ -966,7 +980,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="5"/>
@@ -977,7 +991,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="5"/>
@@ -988,7 +1002,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="5"/>
@@ -999,7 +1013,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="5"/>
@@ -1010,7 +1024,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="5"/>
@@ -1021,7 +1035,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="5"/>
@@ -1032,7 +1046,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="5"/>
@@ -1043,7 +1057,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="5"/>
@@ -1054,7 +1068,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="5"/>
@@ -1065,7 +1079,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="5"/>
@@ -1076,7 +1090,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="5"/>
@@ -1087,7 +1101,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="5"/>
@@ -1098,7 +1112,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="5"/>
@@ -1107,41 +1121,30 @@
       <c r="G30" s="15"/>
       <c r="H30" s="16"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="4">
-        <v>27</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="6">
+    <row r="31" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="6">
         <v>28</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H32"/>
+  <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1152,66 +1155,77 @@
     <col min="4" max="4" width="12.625" style="22" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="47.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.375" style="8" customWidth="1"/>
     <col min="8" max="8" width="59" style="8" customWidth="1"/>
     <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
+    <row r="2" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
+    <row r="4" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C4" s="11">
         <v>43153</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D4" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="24"/>
@@ -1222,7 +1236,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="24"/>
@@ -1233,7 +1247,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="24"/>
@@ -1244,7 +1258,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="24"/>
@@ -1255,7 +1269,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="24"/>
@@ -1266,7 +1280,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="24"/>
@@ -1277,7 +1291,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="24"/>
@@ -1288,7 +1302,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="24"/>
@@ -1299,7 +1313,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="24"/>
@@ -1310,7 +1324,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="24"/>
@@ -1321,7 +1335,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="24"/>
@@ -1332,7 +1346,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="24"/>
@@ -1343,7 +1357,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="24"/>
@@ -1354,7 +1368,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="24"/>
@@ -1365,7 +1379,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="24"/>
@@ -1376,7 +1390,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="24"/>
@@ -1387,7 +1401,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="24"/>
@@ -1398,7 +1412,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="24"/>
@@ -1409,7 +1423,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="24"/>
@@ -1420,7 +1434,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="24"/>
@@ -1431,7 +1445,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="24"/>
@@ -1442,7 +1456,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="24"/>
@@ -1453,7 +1467,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="24"/>
@@ -1464,7 +1478,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="24"/>
@@ -1475,7 +1489,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="24"/>
@@ -1484,32 +1498,21 @@
       <c r="G30" s="15"/>
       <c r="H30" s="16"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="4">
-        <v>27</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="6">
+    <row r="31" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="6">
         <v>28</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Plasma_Gen_Issue Note.xlsx
+++ b/Plasma_Gen_Issue Note.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -119,7 +119,41 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>외부 GND 연결용 Jack 추가 - ear jack type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>V1.0 -A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0 -B,C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma 발생 안함
+Gas 주입 상태에서도 발생 안함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전압을 올려보며 시험 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTX2106xx series의 2차측 구조가 datasheet와 틀림
+- 2차측이 2개로 나눠져 있는것으로 보임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +532,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,7 +567,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -745,7 +779,7 @@
   <dimension ref="B1:H31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -861,11 +895,21 @@
       <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="15"/>
+      <c r="C7" s="14">
+        <v>43158</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="H7" s="16"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -1144,7 +1188,7 @@
   <dimension ref="B1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1197,7 +1241,7 @@
         <v>43153</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>
@@ -1212,27 +1256,49 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="15"/>
+      <c r="C5" s="14">
+        <v>43153</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
+      <c r="C6" s="14">
+        <v>43158</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="4">

--- a/Plasma_Gen_Issue Note.xlsx
+++ b/Plasma_Gen_Issue Note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Pipette" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -71,89 +71,93 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Timer path에 Series Resistor 추가 필요
+Zener diode 추가 - 5V 
+ - BZT52C5V1S or CZRQR52C5V1-HF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oxford Pipette style 적용시 Plasma On key를 Transformer PCB에 구현 검토</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Issue and Review Item list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proto type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer Issue and Review Item list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 GND 연결용 Jack 추가 - ear jack type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0 -A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0 -B,C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma 발생 안함
+Gas 주입 상태에서도 발생 안함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전압을 올려보며 시험 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTX2106xx series의 2차측 구조가 datasheet와 틀림
+- 2차측이 2개로 나눠져 있는것으로 보임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Over voltage protection 필요
 Zener diode 추가 - 5V 
  - BZT52C5V1S or CZRQR52C5V1-HF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Timer path에 Series Resistor 추가 필요
-Zener diode 추가 - 5V 
- - BZT52C5V1S or CZRQR52C5V1-HF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Issue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Version</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oxford Pipette style 적용시 Plasma On key를 Transformer PCB에 구현 검토</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette Issue and Review Item list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Review</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Proto type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transformer Issue and Review Item list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>외부 GND 연결용 Jack 추가 - ear jack type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0 -A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0 -B,C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plasma 발생 안함
-Gas 주입 상태에서도 발생 안함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전압을 올려보며 시험 필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CTX2106xx series의 2차측 구조가 datasheet와 틀림
-- 2차측이 2개로 나눠져 있는것으로 보임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0</t>
+    <t>BZT52C20S</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -776,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H31"/>
+  <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -795,13 +799,13 @@
     <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -809,10 +813,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
@@ -824,7 +828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -832,10 +836,10 @@
         <v>43153</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>6</v>
@@ -844,10 +848,10 @@
         <v>9</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -855,10 +859,10 @@
         <v>43154</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>10</v>
@@ -867,10 +871,10 @@
         <v>11</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -878,20 +882,23 @@
         <v>43154</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -899,20 +906,20 @@
         <v>43158</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>5</v>
       </c>
@@ -923,7 +930,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>6</v>
       </c>
@@ -934,7 +941,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>7</v>
       </c>
@@ -945,7 +952,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>8</v>
       </c>
@@ -956,7 +963,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>9</v>
       </c>
@@ -967,7 +974,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>10</v>
       </c>
@@ -978,7 +985,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>11</v>
       </c>
@@ -989,7 +996,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>12</v>
       </c>
@@ -1000,7 +1007,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>13</v>
       </c>
@@ -1187,7 +1194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1206,7 +1213,7 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1218,10 +1225,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
@@ -1241,7 +1248,7 @@
         <v>43153</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>
@@ -1264,16 +1271,16 @@
         <v>43153</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>30</v>
       </c>
       <c r="H5" s="16"/>
     </row>
@@ -1285,19 +1292,19 @@
         <v>43158</v>
       </c>
       <c r="D6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="H6" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">

--- a/Plasma_Gen_Issue Note.xlsx
+++ b/Plasma_Gen_Issue Note.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Pipette" sheetId="1" r:id="rId1"/>
-    <sheet name="Transformer" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Check list" sheetId="2" r:id="rId1"/>
+    <sheet name="Pipette" sheetId="1" r:id="rId2"/>
+    <sheet name="Transformer" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -125,19 +125,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Open</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Plasma 발생 안함
 Gas 주입 상태에서도 발생 안함</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전압을 올려보며 시험 필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SCH</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -148,6 +140,48 @@
   </si>
   <si>
     <t>V1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BZT52C20S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer의 한쪽 전극을 GND와 연결해야 함
+CTX210611-R 9V 이상에서 Arc 발생</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Datasheet와 동일 성능을 보임
+양쪽 두개의 전극이 동일 전극이며, Transformer wire 연결용과 Solder용으로 구별되어 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Booster 전압을 10V로 조정 필요 - Plsma 발생 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCH/PCB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer의 Pin-6을 GND와 연결</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -157,7 +191,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BZT52C20S</t>
+    <t>Test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load open시 reverse voltage level check
+ - Oscilloscope로 Voltage waveform measure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 장비 구매
+ - Oscilloscope
+ - Power supply</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +265,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -475,6 +546,54 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,10 +899,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="41" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="57.375" customWidth="1"/>
+    <col min="8" max="8" width="37.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>43169</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14">
+        <v>43158</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>11</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>12</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>13</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>14</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>15</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>16</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>17</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>18</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>19</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>20</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>21</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>22</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>23</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>24</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <v>25</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>26</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="4"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -848,7 +1331,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
@@ -895,7 +1378,7 @@
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
@@ -923,11 +1406,21 @@
       <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="15"/>
+      <c r="C8" s="14">
+        <v>43169</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="H8" s="16"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -1190,12 +1683,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1241,81 +1734,93 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
+      <c r="B4" s="27">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="28">
         <v>43153</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
+    <row r="5" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="33">
         <v>2</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="34">
         <v>43153</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" s="33">
+        <v>3</v>
+      </c>
+      <c r="C6" s="34">
+        <v>43158</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="38" t="s">
         <v>30</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="14">
-        <v>43158</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="15"/>
+      <c r="C7" s="14">
+        <v>43169</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="H7" s="16"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -1589,24 +2094,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/Plasma_Gen_Issue Note.xlsx
+++ b/Plasma_Gen_Issue Note.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Check list" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Transformer에서 Timer path로 Over voltage이 또는 Over Current 발생할 수 있음 - Protection circuit 추가 필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Timer path에 Series Resistor 추가 필요
 Zener diode 추가 - 5V 
  - BZT52C5V1S or CZRQR52C5V1-HF</t>
@@ -185,12 +181,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Over voltage protection 필요
-Zener diode 추가 - 5V 
- - BZT52C5V1S or CZRQR52C5V1-HF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Test</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -223,6 +213,22 @@
     <t>필요 장비 구매
  - Oscilloscope
  - Power supply</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/V sample이 항상 through 되어 있음
+ - 형상 검토용 sample로 보임 : Femto 확인 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer에서 Timer path로 Over voltage이 또는 Over Current 발생할 수 있음 - Protection circuit 추가 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load short(Arc) 발생시 12.5V까지 over voltage 발생
+Over voltage protection 필요
+Zener diode 추가 - 5V 
+ - BZT52C5V1S or CZRQR52C5V1-HF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -655,7 +661,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -690,7 +696,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -925,10 +931,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>2</v>
@@ -948,16 +954,16 @@
         <v>43169</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H5" s="12"/>
     </row>
@@ -969,16 +975,16 @@
         <v>43158</v>
       </c>
       <c r="D6" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="42" t="s">
         <v>45</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>47</v>
       </c>
       <c r="H6" s="20"/>
     </row>
@@ -1265,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1284,7 +1290,7 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1296,10 +1302,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
@@ -1311,7 +1317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="66" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -1319,10 +1325,10 @@
         <v>43153</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>6</v>
@@ -1331,7 +1337,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
@@ -1342,19 +1348,19 @@
         <v>43154</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="21" t="s">
         <v>11</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -1365,20 +1371,20 @@
         <v>43154</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
@@ -1389,16 +1395,16 @@
         <v>43158</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="16"/>
     </row>
@@ -1410,28 +1416,38 @@
         <v>43169</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>6</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14">
+        <v>43171</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="H9" s="16"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
@@ -1706,7 +1722,7 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1718,10 +1734,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
@@ -1741,13 +1757,13 @@
         <v>43153</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>7</v>
@@ -1764,19 +1780,19 @@
         <v>43153</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="H5" s="38" t="s">
         <v>31</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="33" x14ac:dyDescent="0.3">
@@ -1787,19 +1803,19 @@
         <v>43158</v>
       </c>
       <c r="D6" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>25</v>
-      </c>
       <c r="H6" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
@@ -1810,16 +1826,16 @@
         <v>43169</v>
       </c>
       <c r="D7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="H7" s="16"/>
     </row>
@@ -2098,7 +2114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>

--- a/Plasma_Gen_Issue Note.xlsx
+++ b/Plasma_Gen_Issue Note.xlsx
@@ -12,12 +12,12 @@
     <sheet name="Transformer" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -221,21 +221,44 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Transformer에서 Timer path로 Over voltage이 또는 Over Current 발생할 수 있음 - Protection circuit 추가 필요</t>
+    <t>Battery type에 맞춰 CON type 결정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset IC 추가 - Voltage drop에 의한 MCU halt 방지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS3801L30 : Reset IC Vth=2.64V Delay=200msec</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Load short(Arc) 발생시 12.5V까지 over voltage 발생
 Over voltage protection 필요
-Zener diode 추가 - 5V 
- - BZT52C5V1S or CZRQR52C5V1-HF</t>
+Booster 8V line에 TVS diode 추가 : SMBJ12CA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer에서 Timer path로 Over voltage 또는 Over Current 발생할 수 있음 - Protection circuit 추가 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Femto] ME용 sample 임 - 부품 구매 진행중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC-005(ICbanQ P007108383)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1272,7 +1295,7 @@
   <dimension ref="B1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1317,7 +1340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -1337,7 +1360,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
@@ -1357,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>11</v>
@@ -1374,7 +1397,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>10</v>
@@ -1398,7 +1421,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>6</v>
@@ -1406,7 +1429,9 @@
       <c r="G7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="16" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
@@ -1419,7 +1444,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>6</v>
@@ -1448,29 +1473,53 @@
       <c r="G9" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="16"/>
+      <c r="H9" s="16" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>7</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="15"/>
+      <c r="C10" s="14">
+        <v>43172</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="H10" s="16"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>8</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
+      <c r="C11" s="14">
+        <v>43172</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1704,7 +1753,7 @@
   <dimension ref="B1:H31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1715,7 +1764,7 @@
     <col min="4" max="4" width="12.625" style="22" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="71.875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="59" style="8" customWidth="1"/>
     <col min="9" max="16384" width="9" style="8"/>
   </cols>
@@ -1843,11 +1892,21 @@
       <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="15"/>
+      <c r="C8" s="14">
+        <v>43172</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="H8" s="16"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">

--- a/Plasma_Gen_Issue Note.xlsx
+++ b/Plasma_Gen_Issue Note.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Pipette!$B$3:$H$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Pipette!$B$3:$H$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="84">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -400,6 +400,10 @@
   </si>
   <si>
     <t>Main PCB - Top 방향으로 배치 ( 3/29 Femto 협의)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC Jack 인식을 위한 interface 추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -918,48 +922,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -986,6 +948,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1483,19 +1487,19 @@
         <v>8</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="66" t="s">
+      <c r="H12" s="52" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1732,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H36"/>
+  <dimension ref="B1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1781,10 +1785,10 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="54">
+      <c r="B4" s="63">
         <v>1</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="60" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="48" t="s">
@@ -1804,8 +1808,8 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="55"/>
-      <c r="C5" s="52"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="44" t="s">
         <v>16</v>
       </c>
@@ -1821,8 +1825,8 @@
       <c r="H5" s="47"/>
     </row>
     <row r="6" spans="2:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="52"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="45" t="s">
         <v>15</v>
       </c>
@@ -1840,8 +1844,8 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="56"/>
-      <c r="C7" s="53"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="45" t="s">
         <v>15</v>
       </c>
@@ -1859,10 +1863,10 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="57">
+      <c r="B8" s="71">
         <v>2</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="70" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="44" t="s">
@@ -1882,8 +1886,8 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="55"/>
-      <c r="C9" s="52"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="45" t="s">
         <v>16</v>
       </c>
@@ -1901,8 +1905,8 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="55"/>
-      <c r="C10" s="52"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="45" t="s">
         <v>16</v>
       </c>
@@ -1920,8 +1924,8 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="56"/>
-      <c r="C11" s="53"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="44" t="s">
         <v>16</v>
       </c>
@@ -1939,10 +1943,10 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="61">
+      <c r="B12" s="68">
         <v>3</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="66" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="45" t="s">
@@ -1962,8 +1966,8 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="62"/>
-      <c r="C13" s="60"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="44" t="s">
         <v>16</v>
       </c>
@@ -1977,10 +1981,10 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="57">
+      <c r="B14" s="71">
         <v>4</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="70" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="45" t="s">
@@ -2000,27 +2004,27 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="55"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="67" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="54">
         <v>43188</v>
       </c>
-      <c r="F15" s="69" t="s">
+      <c r="F15" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="70" t="s">
+      <c r="G15" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H15" s="57" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B16" s="55"/>
-      <c r="C16" s="52"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="44" t="s">
         <v>16</v>
       </c>
@@ -2035,74 +2039,72 @@
       </c>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B17" s="50">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="64"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="13">
+        <v>43189</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="G17" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B18" s="59">
+        <v>5</v>
+      </c>
+      <c r="C18" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D18" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E18" s="30">
         <v>43171</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F18" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G18" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="38" t="s">
+      <c r="H18" s="38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="50"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="44" t="s">
+    <row r="19" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B19" s="59"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E19" s="13">
         <v>43175</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G19" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="50">
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B20" s="59">
         <v>6</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C20" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D20" s="46" t="s">
         <v>17</v>
-      </c>
-      <c r="E19" s="30">
-        <v>43153</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B20" s="50"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="46" t="s">
-        <v>21</v>
       </c>
       <c r="E20" s="30">
         <v>43153</v>
@@ -2111,93 +2113,103 @@
         <v>23</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B21" s="50"/>
-      <c r="C21" s="49"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="59"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="46" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E21" s="30">
-        <v>43158</v>
+        <v>43153</v>
       </c>
       <c r="F21" s="31" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="50"/>
-      <c r="C22" s="49"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B22" s="59"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="46" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E22" s="30">
-        <v>43169</v>
+        <v>43158</v>
       </c>
       <c r="F22" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="59"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="30">
+        <v>43169</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="42" t="s">
+      <c r="H23" s="42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="50"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="44" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="59"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E24" s="13">
         <v>43172</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="4">
-        <v>7</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="13">
-        <v>43188</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>7</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="13">
+        <v>43188</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="4"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
@@ -2246,9 +2258,7 @@
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="4">
-        <v>20</v>
-      </c>
+      <c r="B31" s="4"/>
       <c r="C31" s="23"/>
       <c r="D31" s="5"/>
       <c r="E31" s="13"/>
@@ -2258,7 +2268,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="5"/>
@@ -2269,7 +2279,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="5"/>
@@ -2280,7 +2290,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="5"/>
@@ -2291,7 +2301,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="5"/>
@@ -2300,32 +2310,43 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="6">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>24</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="6">
         <v>28</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="18"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:H24"/>
+  <autoFilter ref="B3:H25"/>
   <mergeCells count="12">
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plasma_Gen_Issue Note.xlsx
+++ b/Plasma_Gen_Issue Note.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Check list" sheetId="2" r:id="rId1"/>
     <sheet name="Pipette" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Femto work" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Pipette!$B$3:$H$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Pipette!$B$3:$H$29</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="95">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Open</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Category</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -228,15 +224,6 @@
   </si>
   <si>
     <t>Battery</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GND 판과의 연결 방법 협의 - 일단 악어클립으로 제작
-  - 악어클립 or Ring 단자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S/V</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -303,11 +290,6 @@
   </si>
   <si>
     <t>Open</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S/V 기능 확인을 위한 Sample 요청 - Femto
- - 구매 진행중</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -404,6 +386,69 @@
   </si>
   <si>
     <t>DC Jack 인식을 위한 interface 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key 추가, Pin 1ea 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/V 구매 - Series LX-Value_8mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/V 부자재 구매 - Gasket, 12'' Wire lead, Screw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fitting 선정 및 구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Needle 선정 및 구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/V 기능 확인을 위한 Sample 요청 - Femto
+ - 구매 진행중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>needle 선정 및 구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기구물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>악어클립은 사용하지 않음
+전용 GND 판 제작 예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND 판과의 연결 방법 협의 - 일단 악어클립으로 제작
+  - 악어클립 or Ring 단자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND 판과의 연결 방법 협의</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +490,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,12 +509,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -776,7 +815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -934,21 +973,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -990,6 +1014,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1326,10 +1370,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>2</v>
@@ -1349,16 +1393,16 @@
         <v>43169</v>
       </c>
       <c r="D5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>33</v>
       </c>
       <c r="H5" s="12"/>
     </row>
@@ -1370,19 +1414,19 @@
         <v>43188</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
@@ -1391,16 +1435,16 @@
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H7" s="14"/>
     </row>
@@ -1410,19 +1454,19 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>41</v>
-      </c>
       <c r="H8" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
@@ -1431,16 +1475,16 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" s="14"/>
     </row>
@@ -1450,16 +1494,16 @@
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" s="14"/>
     </row>
@@ -1469,16 +1513,16 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="14"/>
     </row>
@@ -1488,19 +1532,19 @@
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H12" s="52" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
@@ -1509,16 +1553,16 @@
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H13" s="14"/>
     </row>
@@ -1528,19 +1572,19 @@
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -1549,19 +1593,19 @@
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
@@ -1736,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H37"/>
+  <dimension ref="B1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1757,7 +1801,7 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1766,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
@@ -1785,33 +1829,33 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="63">
+      <c r="B4" s="58">
         <v>1</v>
       </c>
-      <c r="C4" s="60" t="s">
-        <v>11</v>
+      <c r="C4" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="26">
         <v>43153</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="64"/>
-      <c r="C5" s="61"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="40">
         <v>43188</v>
@@ -1820,114 +1864,114 @@
         <v>5</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H5" s="47"/>
     </row>
     <row r="6" spans="2:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="64"/>
-      <c r="C6" s="61"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="30">
         <v>43154</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="65"/>
-      <c r="C7" s="62"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="30">
         <v>43169</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="66">
+        <v>2</v>
+      </c>
+      <c r="C8" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="71">
-        <v>2</v>
-      </c>
-      <c r="C8" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="13">
+      <c r="D8" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="30">
         <v>43154</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>57</v>
+      <c r="F8" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="64"/>
-      <c r="C9" s="61"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="30">
         <v>43154</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="64"/>
-      <c r="C10" s="61"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="30">
         <v>43188</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="65"/>
-      <c r="C11" s="62"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="13">
         <v>43172</v>
@@ -1936,97 +1980,97 @@
         <v>5</v>
       </c>
       <c r="G11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="68">
+      <c r="B12" s="63">
         <v>3</v>
       </c>
-      <c r="C12" s="66" t="s">
-        <v>49</v>
+      <c r="C12" s="61" t="s">
+        <v>48</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="30">
         <v>43172</v>
       </c>
       <c r="F12" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="H12" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="42" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="69"/>
-      <c r="C13" s="67"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="71">
+      <c r="B14" s="66">
         <v>4</v>
       </c>
-      <c r="C14" s="70" t="s">
-        <v>52</v>
+      <c r="C14" s="65" t="s">
+        <v>49</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="30">
         <v>43158</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="64"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="54">
+      <c r="B15" s="59"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="30">
         <v>43188</v>
       </c>
-      <c r="F15" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="57" t="s">
-        <v>82</v>
+      <c r="F15" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B16" s="64"/>
-      <c r="C16" s="61"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="13">
         <v>43188</v>
@@ -2035,217 +2079,237 @@
         <v>5</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="15"/>
+        <v>93</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="64"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="44" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="30">
+        <v>43189</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="38"/>
+    </row>
+    <row r="18" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B18" s="54">
+        <v>5</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="13">
-        <v>43189</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="59">
-        <v>5</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>16</v>
-      </c>
       <c r="E18" s="30">
-        <v>43171</v>
+        <v>43153</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="59"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="13">
-        <v>43175</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="15"/>
+        <v>6</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="54"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="30">
+        <v>43153</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B20" s="59">
-        <v>6</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>55</v>
-      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="46" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="30">
-        <v>43153</v>
+        <v>43158</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G20" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="54"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="30">
+        <v>43169</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="54"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="30">
+        <v>43172</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="54"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B24" s="54">
         <v>6</v>
       </c>
-      <c r="H20" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="59"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="30">
-        <v>43153</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B22" s="59"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="30">
-        <v>43158</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="59"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="30">
-        <v>43169</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="59"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="13">
-        <v>43172</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="4">
-        <v>7</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="5"/>
+      <c r="C24" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="30">
+        <v>43171</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B25" s="54"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="44" t="s">
+        <v>15</v>
+      </c>
       <c r="E25" s="13">
-        <v>43188</v>
+        <v>43175</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>81</v>
+        <v>60</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="4"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="14"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="13">
+        <v>43193</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="H26" s="15"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="4"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="14"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="13">
+        <v>43193</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>90</v>
+      </c>
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="4"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="5"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="13"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="14"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="4"/>
-      <c r="C29" s="23"/>
+      <c r="B29" s="4">
+        <v>7</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="14"/>
+      <c r="E29" s="13">
+        <v>43188</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
@@ -2267,9 +2331,7 @@
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="4">
-        <v>20</v>
-      </c>
+      <c r="B32" s="4"/>
       <c r="C32" s="23"/>
       <c r="D32" s="5"/>
       <c r="E32" s="13"/>
@@ -2278,9 +2340,7 @@
       <c r="H32" s="15"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="4">
-        <v>21</v>
-      </c>
+      <c r="B33" s="4"/>
       <c r="C33" s="23"/>
       <c r="D33" s="5"/>
       <c r="E33" s="13"/>
@@ -2289,9 +2349,7 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="4">
-        <v>22</v>
-      </c>
+      <c r="B34" s="4"/>
       <c r="C34" s="23"/>
       <c r="D34" s="5"/>
       <c r="E34" s="13"/>
@@ -2300,9 +2358,7 @@
       <c r="H34" s="15"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="4">
-        <v>23</v>
-      </c>
+      <c r="B35" s="4"/>
       <c r="C35" s="23"/>
       <c r="D35" s="5"/>
       <c r="E35" s="13"/>
@@ -2312,7 +2368,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="4">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="5"/>
@@ -2321,24 +2377,68 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="6">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
+        <v>21</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>22</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>23</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>24</v>
+      </c>
+      <c r="C40" s="23"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="6">
         <v>28</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:H25"/>
+  <autoFilter ref="B3:H29"/>
   <mergeCells count="12">
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B24:B28"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="C12:C13"/>
@@ -2356,14 +2456,401 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B4:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="9" style="36"/>
+    <col min="8" max="8" width="48.125" customWidth="1"/>
+    <col min="9" max="9" width="33.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="67">
+        <v>1</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="75">
+        <v>43193</v>
+      </c>
+      <c r="F6" s="75">
+        <v>43206</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="69"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="70">
+        <v>2</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="76">
+        <v>43193</v>
+      </c>
+      <c r="F7" s="76">
+        <v>43206</v>
+      </c>
+      <c r="G7" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="72"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="70">
+        <v>3</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="76">
+        <v>43193</v>
+      </c>
+      <c r="F8" s="76">
+        <v>43206</v>
+      </c>
+      <c r="G8" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="72"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="70">
+        <v>4</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="76">
+        <v>43193</v>
+      </c>
+      <c r="F9" s="76">
+        <v>43206</v>
+      </c>
+      <c r="G9" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="72"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="70">
+        <v>5</v>
+      </c>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="72"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="70">
+        <v>6</v>
+      </c>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="72"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="70">
+        <v>7</v>
+      </c>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="72"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="70">
+        <v>8</v>
+      </c>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="72"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="70">
+        <v>9</v>
+      </c>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="72"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="70">
+        <v>10</v>
+      </c>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="72"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="70">
+        <v>11</v>
+      </c>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="72"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="70">
+        <v>12</v>
+      </c>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="72"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="70">
+        <v>13</v>
+      </c>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="72"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="70">
+        <v>14</v>
+      </c>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="72"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="70">
+        <v>15</v>
+      </c>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="72"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="70">
+        <v>16</v>
+      </c>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="72"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="70">
+        <v>17</v>
+      </c>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="72"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="70">
+        <v>18</v>
+      </c>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="72"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="70">
+        <v>19</v>
+      </c>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="72"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="70">
+        <v>20</v>
+      </c>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="72"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="70">
+        <v>21</v>
+      </c>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="72"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="70">
+        <v>22</v>
+      </c>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="72"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="70">
+        <v>23</v>
+      </c>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="72"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="70">
+        <v>24</v>
+      </c>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="72"/>
+    </row>
+    <row r="30" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="70">
+        <v>25</v>
+      </c>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="74"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Plasma_Gen_Issue Note.xlsx
+++ b/Plasma_Gen_Issue Note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Check list" sheetId="2" r:id="rId1"/>
@@ -168,10 +168,6 @@
   <si>
     <t>S/V sample이 항상 through 되어 있음
  - 형상 검토용 sample로 보임 : Femto 확인 필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reset IC 추가 - Voltage drop에 의한 MCU halt 방지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -294,6 +290,136 @@
   </si>
   <si>
     <t>Booster over voltage protect 기능 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer에서 Timer path로 Over voltage 또는 Over Current 발생할 수 있음 - Protection circuit 추가 필요
+ - Timer path에 Series Resistor 추가 필요
+ - Zener diode 추가 - 5V 
+    : BZT52C5V1S or CZRQR52C5V1-HF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수님 장비 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oscilloscope, Probe 2ea, Power supply 1ea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티미터 1ea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Femto에서 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computer 1ea , LCD 2ea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델 선정 후 통보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma 장비 - LF 1ea, RF 1ea, Pipette Test용 Gas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부동산 계약</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷 신청, 아파트 관리사무소 신고, 도시가스 신청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인적으로 신청후 영수증 제출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부자제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette D/L용 USB cable 구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main PCB - Top 방향으로 배치 ( 3/29 Femto 협의)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC Jack 인식을 위한 interface 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key 추가, Pin 1ea 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/V 구매 - Series LX-Value_8mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/V 부자재 구매 - Gasket, 12'' Wire lead, Screw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fitting 선정 및 구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Needle 선정 및 구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/V 기능 확인을 위한 Sample 요청 - Femto
+ - 구매 진행중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>needle 선정 및 구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기구물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>악어클립은 사용하지 않음
+전용 GND 판 제작 예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND 판과의 연결 방법 협의 - 일단 악어클립으로 제작
+  - 악어클립 or Ring 단자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND 판과의 연결 방법 협의</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -317,138 +443,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Transformer에서 Timer path로 Over voltage 또는 Over Current 발생할 수 있음 - Protection circuit 추가 필요
- - Timer path에 Series Resistor 추가 필요
- - Zener diode 추가 - 5V 
-    : BZT52C5V1S or CZRQR52C5V1-HF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Timer path에 Series Resistor, Zener diode(BZT52C5V1S) 추가
 S/V 전원에 Zener diode(BZT52C5V1S) 추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>교수님 장비 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oscilloscope, Probe 2ea, Power supply 1ea</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>멀티미터 1ea</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Femto에서 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Computer 1ea , LCD 2ea</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모델 선정 후 통보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plasma 장비 - LF 1ea, RF 1ea, Pipette Test용 Gas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부동산 계약</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인터넷 신청, 아파트 관리사무소 신고, 도시가스 신청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인적으로 신청후 영수증 제출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부자제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette D/L용 USB cable 구매</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main PCB - Top 방향으로 배치 ( 3/29 Femto 협의)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC Jack 인식을 위한 interface 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key 추가, Pin 1ea 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S/V 구매 - Series LX-Value_8mm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S/V 부자재 구매 - Gasket, 12'' Wire lead, Screw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fitting 선정 및 구매</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Needle 선정 및 구매</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S/V 기능 확인을 위한 Sample 요청 - Femto
- - 구매 진행중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>needle 선정 및 구매</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기구물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>악어클립은 사용하지 않음
-전용 GND 판 제작 예정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GND 판과의 연결 방법 협의 - 일단 악어클립으로 제작
-  - 악어클립 or Ring 단자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GND 판과의 연결 방법 협의</t>
+    <t>Reset IC 추가 - Voltage drop에 의한 MCU halt 방지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -973,48 +973,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1034,6 +992,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1414,7 +1414,7 @@
         <v>43188</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>33</v>
@@ -1423,10 +1423,10 @@
         <v>29</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>33</v>
@@ -1444,7 +1444,7 @@
         <v>29</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H7" s="14"/>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>33</v>
@@ -1463,10 +1463,10 @@
         <v>29</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>33</v>
@@ -1484,7 +1484,7 @@
         <v>29</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="14"/>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>33</v>
@@ -1503,7 +1503,7 @@
         <v>29</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="14"/>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>33</v>
@@ -1522,7 +1522,7 @@
         <v>29</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="14"/>
     </row>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="50" t="s">
         <v>33</v>
@@ -1541,10 +1541,10 @@
         <v>29</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H12" s="52" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>33</v>
@@ -1562,7 +1562,7 @@
         <v>29</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H13" s="14"/>
     </row>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>33</v>
@@ -1581,10 +1581,10 @@
         <v>29</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -1593,19 +1593,19 @@
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F15" s="39" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
@@ -1782,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1829,10 +1829,10 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="58">
+      <c r="B4" s="72">
         <v>1</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="69" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="48" t="s">
@@ -1842,18 +1842,18 @@
         <v>43153</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="59"/>
-      <c r="C5" s="56"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="44" t="s">
         <v>15</v>
       </c>
@@ -1864,13 +1864,13 @@
         <v>5</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="47"/>
     </row>
     <row r="6" spans="2:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="59"/>
-      <c r="C6" s="56"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="70"/>
       <c r="D6" s="45" t="s">
         <v>14</v>
       </c>
@@ -1878,18 +1878,18 @@
         <v>43154</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="60"/>
-      <c r="C7" s="57"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="45" t="s">
         <v>14</v>
       </c>
@@ -1897,20 +1897,20 @@
         <v>43169</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="66">
+      <c r="B8" s="80">
         <v>2</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="79" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="45" t="s">
@@ -1926,12 +1926,12 @@
         <v>12</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="59"/>
-      <c r="C9" s="56"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="45" t="s">
         <v>15</v>
       </c>
@@ -1939,18 +1939,18 @@
         <v>43154</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="41" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="10" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="59"/>
-      <c r="C10" s="56"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="45" t="s">
         <v>15</v>
       </c>
@@ -1958,18 +1958,18 @@
         <v>43188</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="41" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="60"/>
-      <c r="C11" s="57"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="44" t="s">
         <v>15</v>
       </c>
@@ -1980,18 +1980,18 @@
         <v>5</v>
       </c>
       <c r="G11" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="63">
+      <c r="B12" s="77">
         <v>3</v>
       </c>
-      <c r="C12" s="61" t="s">
-        <v>48</v>
+      <c r="C12" s="75" t="s">
+        <v>47</v>
       </c>
       <c r="D12" s="45" t="s">
         <v>15</v>
@@ -2000,18 +2000,18 @@
         <v>43172</v>
       </c>
       <c r="F12" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="H12" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="42" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="64"/>
-      <c r="C13" s="62"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="44" t="s">
         <v>15</v>
       </c>
@@ -2020,16 +2020,16 @@
         <v>5</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="66">
+      <c r="B14" s="80">
         <v>4</v>
       </c>
-      <c r="C14" s="65" t="s">
-        <v>49</v>
+      <c r="C14" s="79" t="s">
+        <v>48</v>
       </c>
       <c r="D14" s="45" t="s">
         <v>15</v>
@@ -2038,18 +2038,18 @@
         <v>43158</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="59"/>
-      <c r="C15" s="56"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="45" t="s">
         <v>15</v>
       </c>
@@ -2060,15 +2060,15 @@
         <v>22</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B16" s="59"/>
-      <c r="C16" s="56"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="44" t="s">
         <v>15</v>
       </c>
@@ -2079,15 +2079,15 @@
         <v>5</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="59"/>
-      <c r="C17" s="56"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="45" t="s">
         <v>15</v>
       </c>
@@ -2098,16 +2098,16 @@
         <v>22</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H17" s="38"/>
     </row>
     <row r="18" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="54">
+      <c r="B18" s="68">
         <v>5</v>
       </c>
-      <c r="C18" s="53" t="s">
-        <v>52</v>
+      <c r="C18" s="67" t="s">
+        <v>51</v>
       </c>
       <c r="D18" s="46" t="s">
         <v>16</v>
@@ -2126,8 +2126,8 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="54"/>
-      <c r="C19" s="53"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="46" t="s">
         <v>20</v>
       </c>
@@ -2145,8 +2145,8 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B20" s="54"/>
-      <c r="C20" s="53"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="46" t="s">
         <v>17</v>
       </c>
@@ -2164,8 +2164,8 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="54"/>
-      <c r="C21" s="53"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="46" t="s">
         <v>26</v>
       </c>
@@ -2179,12 +2179,12 @@
         <v>27</v>
       </c>
       <c r="H21" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="54"/>
-      <c r="C22" s="53"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="67"/>
       <c r="D22" s="45" t="s">
         <v>26</v>
       </c>
@@ -2198,12 +2198,12 @@
         <v>12</v>
       </c>
       <c r="H22" s="42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="54"/>
-      <c r="C23" s="53"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="5"/>
       <c r="E23" s="13"/>
       <c r="F23" s="5"/>
@@ -2211,11 +2211,11 @@
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B24" s="54">
+      <c r="B24" s="68">
         <v>6</v>
       </c>
-      <c r="C24" s="53" t="s">
-        <v>91</v>
+      <c r="C24" s="67" t="s">
+        <v>88</v>
       </c>
       <c r="D24" s="45" t="s">
         <v>15</v>
@@ -2224,18 +2224,18 @@
         <v>43171</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24" s="32" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B25" s="54"/>
-      <c r="C25" s="53"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="44" t="s">
         <v>15</v>
       </c>
@@ -2243,16 +2243,16 @@
         <v>43175</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="54"/>
-      <c r="C26" s="53"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="44" t="s">
         <v>15</v>
       </c>
@@ -2260,16 +2260,16 @@
         <v>43193</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H26" s="15"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="54"/>
-      <c r="C27" s="53"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="44" t="s">
         <v>15</v>
       </c>
@@ -2277,16 +2277,16 @@
         <v>43193</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="54"/>
-      <c r="C28" s="53"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="44"/>
       <c r="E28" s="13"/>
       <c r="F28" s="5"/>
@@ -2298,7 +2298,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="13">
@@ -2308,7 +2308,7 @@
         <v>5</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H29" s="15"/>
     </row>
@@ -2458,7 +2458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
@@ -2488,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>2</v>
@@ -2501,354 +2501,354 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="67">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="61">
+        <v>43193</v>
+      </c>
+      <c r="F6" s="61">
+        <v>43206</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="75">
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="56">
+        <v>2</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="62">
         <v>43193</v>
       </c>
-      <c r="F6" s="75">
+      <c r="F7" s="62">
         <v>43206</v>
       </c>
-      <c r="G6" s="78" t="s">
+      <c r="G7" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="I7" s="58"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="56">
+        <v>3</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="62">
+        <v>43193</v>
+      </c>
+      <c r="F8" s="62">
+        <v>43206</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="69"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="70">
-        <v>2</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="76">
+      <c r="I8" s="58"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="56">
+        <v>4</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="62">
         <v>43193</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F9" s="62">
         <v>43206</v>
       </c>
-      <c r="G7" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="72"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="70">
-        <v>3</v>
-      </c>
-      <c r="C8" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="76">
-        <v>43193</v>
-      </c>
-      <c r="F8" s="76">
-        <v>43206</v>
-      </c>
-      <c r="G8" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="72"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="70">
-        <v>4</v>
-      </c>
-      <c r="C9" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="76">
-        <v>43193</v>
-      </c>
-      <c r="F9" s="76">
-        <v>43206</v>
-      </c>
-      <c r="G9" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="72"/>
+      <c r="G9" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="58"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="70">
+      <c r="B10" s="56">
         <v>5</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="72"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="58"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="70">
+      <c r="B11" s="56">
         <v>6</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="72"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="70">
+      <c r="B12" s="56">
         <v>7</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="72"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="70">
+      <c r="B13" s="56">
         <v>8</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="72"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="58"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="70">
+      <c r="B14" s="56">
         <v>9</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="72"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="58"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="70">
+      <c r="B15" s="56">
         <v>10</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="72"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="58"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="70">
+      <c r="B16" s="56">
         <v>11</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="72"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="58"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="70">
+      <c r="B17" s="56">
         <v>12</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="72"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="58"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="70">
+      <c r="B18" s="56">
         <v>13</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="72"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="58"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="70">
+      <c r="B19" s="56">
         <v>14</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="72"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="58"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="70">
+      <c r="B20" s="56">
         <v>15</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="72"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="58"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="70">
+      <c r="B21" s="56">
         <v>16</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="72"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="58"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="70">
+      <c r="B22" s="56">
         <v>17</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="72"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="58"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="70">
+      <c r="B23" s="56">
         <v>18</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="72"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="58"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="70">
+      <c r="B24" s="56">
         <v>19</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="72"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="58"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="70">
+      <c r="B25" s="56">
         <v>20</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="72"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="58"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="70">
+      <c r="B26" s="56">
         <v>21</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="72"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="58"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="70">
+      <c r="B27" s="56">
         <v>22</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="72"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="58"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="70">
+      <c r="B28" s="56">
         <v>23</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="72"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="58"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="70">
+      <c r="B29" s="56">
         <v>24</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="72"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58"/>
     </row>
     <row r="30" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="70">
+      <c r="B30" s="56">
         <v>25</v>
       </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="74"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="60"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Plasma_Gen_Issue Note.xlsx
+++ b/Plasma_Gen_Issue Note.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Femto work" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Pipette!$B$3:$H$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Pipette!$B$3:$H$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="96">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -449,6 +449,10 @@
   </si>
   <si>
     <t>Reset IC 추가 - Voltage drop에 의한 MCU halt 방지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTAG Download시 VCC 3.3V가 필요한지 확인 후 필요시 USB cable에 전원 Pin 할당</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1780,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H41"/>
+  <dimension ref="B1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1968,8 +1972,8 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="74"/>
-      <c r="C11" s="71"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="44" t="s">
         <v>15</v>
       </c>
@@ -1987,102 +1991,90 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="77">
+      <c r="B12" s="73"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="13">
+        <v>43194</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="74"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="77">
         <v>3</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C14" s="75" t="s">
         <v>47</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="30">
-        <v>43172</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="78"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="80">
-        <v>4</v>
-      </c>
-      <c r="C14" s="79" t="s">
-        <v>48</v>
       </c>
       <c r="D14" s="45" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="30">
-        <v>43158</v>
+        <v>43172</v>
       </c>
       <c r="F14" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="78"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="80">
+        <v>4</v>
+      </c>
+      <c r="C16" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="30">
+        <v>43158</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H16" s="42" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="73"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="30">
-        <v>43188</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B16" s="73"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="13">
-        <v>43188</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -2092,242 +2084,262 @@
         <v>15</v>
       </c>
       <c r="E17" s="30">
-        <v>43189</v>
+        <v>43188</v>
       </c>
       <c r="F17" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="38"/>
+        <v>49</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="18" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="68">
+      <c r="B18" s="73"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="13">
+        <v>43188</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="30">
-        <v>43153</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="68"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="46" t="s">
-        <v>20</v>
+      <c r="G18" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="73"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="45" t="s">
+        <v>15</v>
       </c>
       <c r="E19" s="30">
-        <v>43153</v>
+        <v>43189</v>
       </c>
       <c r="F19" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>23</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B20" s="68"/>
-      <c r="C20" s="67"/>
+      <c r="B20" s="68">
+        <v>5</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>51</v>
+      </c>
       <c r="D20" s="46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="30">
-        <v>43158</v>
+        <v>43153</v>
       </c>
       <c r="F20" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B21" s="68"/>
       <c r="C21" s="67"/>
       <c r="D21" s="46" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E21" s="30">
-        <v>43169</v>
+        <v>43153</v>
       </c>
       <c r="F21" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G21" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B22" s="68"/>
       <c r="C22" s="67"/>
-      <c r="D22" s="45" t="s">
-        <v>26</v>
+      <c r="D22" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="E22" s="30">
-        <v>43172</v>
+        <v>43158</v>
       </c>
       <c r="F22" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="42" t="s">
-        <v>77</v>
+      <c r="G22" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="68"/>
       <c r="C23" s="67"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B24" s="68">
-        <v>6</v>
-      </c>
-      <c r="C24" s="67" t="s">
-        <v>88</v>
-      </c>
+      <c r="D23" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="30">
+        <v>43169</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="68"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="45" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E24" s="30">
-        <v>43171</v>
+        <v>43172</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="68"/>
       <c r="C25" s="67"/>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B26" s="68">
+        <v>6</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="13">
-        <v>43175</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="68"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="13">
-        <v>43193</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E26" s="30">
+        <v>43171</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B27" s="68"/>
       <c r="C27" s="67"/>
       <c r="D27" s="44" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="13">
-        <v>43193</v>
+        <v>43175</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>59</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="68"/>
       <c r="C28" s="67"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="19"/>
+      <c r="D28" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="13">
+        <v>43193</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>84</v>
+      </c>
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="4">
-        <v>7</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="5"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="44" t="s">
+        <v>15</v>
+      </c>
       <c r="E29" s="13">
-        <v>43188</v>
+        <v>43193</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>74</v>
+        <v>59</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="4"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="5"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="13"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="14"/>
+      <c r="G30" s="19"/>
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="4"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="4">
+        <v>7</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>73</v>
+      </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="14"/>
+      <c r="E31" s="13">
+        <v>43188</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
@@ -2367,9 +2379,7 @@
       <c r="H35" s="15"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="4">
-        <v>20</v>
-      </c>
+      <c r="B36" s="4"/>
       <c r="C36" s="23"/>
       <c r="D36" s="5"/>
       <c r="E36" s="13"/>
@@ -2378,9 +2388,7 @@
       <c r="H36" s="15"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="4">
-        <v>21</v>
-      </c>
+      <c r="B37" s="4"/>
       <c r="C37" s="23"/>
       <c r="D37" s="5"/>
       <c r="E37" s="13"/>
@@ -2390,7 +2398,7 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="5"/>
@@ -2401,7 +2409,7 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="5"/>
@@ -2412,7 +2420,7 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="4">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C40" s="23"/>
       <c r="D40" s="5"/>
@@ -2421,32 +2429,54 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="6">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <v>23</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="4">
+        <v>24</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="6">
         <v>28</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="18"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:H29"/>
+  <autoFilter ref="B3:H31"/>
   <mergeCells count="12">
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="B26:B30"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2459,7 +2489,7 @@
   <dimension ref="B4:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2600,11 +2630,21 @@
       <c r="B10" s="56">
         <v>5</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="65"/>
+      <c r="C10" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="62">
+        <v>43193</v>
+      </c>
+      <c r="F10" s="62">
+        <v>43206</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>29</v>
+      </c>
       <c r="H10" s="57" t="s">
         <v>91</v>
       </c>
